--- a/env_network.xlsx
+++ b/env_network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanyaaaas/Documents/environmental_dispute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45442CEC-CBE3-1A44-BEF3-437284FD2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452329D3-15DF-EF45-905B-CB0511EBAE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="env_network" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="82">
   <si>
     <t>citingCase</t>
   </si>
@@ -1113,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,31 +2282,31 @@
         <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B147" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>78</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2322,46 +2322,14 @@
         <v>78</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>78</v>
-      </c>
-      <c r="B152" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>78</v>
-      </c>
-      <c r="B153" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>79</v>
-      </c>
-      <c r="B155" t="s">
         <v>3</v>
       </c>
     </row>

--- a/env_network.xlsx
+++ b/env_network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanyaaaas/Documents/environmental_dispute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452329D3-15DF-EF45-905B-CB0511EBAE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFC8647-9F9C-CE47-9D5C-4539C6003D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
